--- a/biology/Histoire de la zoologie et de la botanique/Rica_Erickson/Rica_Erickson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rica_Erickson/Rica_Erickson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frederica Lucy "Rica" Erickson AM, née Sandilands (10 août 1908 – 8 septembre 2009), est une naturaliste, illustratrice botanique, historienne, auteure et professeure. Sans formation reconnue en sciences, elle écrit en détail au sujet de la botanique et des oiseaux, ainsi que sur la généalogie et l'histoire en général. Erickson a publié dix livres, en a co-écrit quatre, édité douze et participé à la rédaction de nombreuses publications scientifiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederica Lucy "Rica" Erickson AM, née Sandilands (10 août 1908 – 8 septembre 2009), est une naturaliste, illustratrice botanique, historienne, auteure et professeure. Sans formation reconnue en sciences, elle écrit en détail au sujet de la botanique et des oiseaux, ainsi que sur la généalogie et l'histoire en général. Erickson a publié dix livres, en a co-écrit quatre, édité douze et participé à la rédaction de nombreuses publications scientifiques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Boulder, en Australie, Erickson est l'aînée des huit enfants de Phoebe Cooke et Christopher Sandilands, qui ont tous les deux immigré depuis Victoria en 1906. Christopher Sandilands travaille à la mine de Boulder. La famille habite à Dwyer Street.
 Christopher s'enrôle dans l'armée et combat en France pendant la Première Guerre mondiale. Il revient handicapé et incapable de continuer à travailler à la mine, et achète des boutures à Kendenup pour s'occuper d'un verger. C'est là que Rica rencontre l'illustratrice botanique Emily Pelloe, en 1921. Pelloe arrive au verger quand Jack De Garis, qui publie ses ouvrages, offre son ouvrage Wildflowers of Western Australia à la famille Sandilands pour Noël.
@@ -551,7 +565,9 @@
           <t>Réserve naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1964, la branche de Bolgart de la Country Women's Association demande au comté de Victoria Plains de protéger 124 hectares de forêt le long d'Old Plains Road, au sud-ouest de Calingiri, une artère importante créée par Drummond en 1842. Les coordonnées de cette réserve naturelle sont : 31° 08′ 39″ S, 116° 17′ 39″ E.
 La demande est approuvée, et en 1996, à la suite d'une nouvelle requête de l'association, le Department of Conservation and Land Management nomme la réserve 27595 Rica Erickson Nature Reserve. Il est très inhabituel pour le comité de donner le nom d'une personne vivante à une réserve naturelle. Plus de 300 personnes se déplacent pour l'inauguration du parc le 11 août 1996.
@@ -583,7 +599,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1980, elle reçoit un doctorat honorifique de lettres de l'université d'Australie-occidentale pour ses recherches et son travail en botanique. La même année, elle devient Western Australian Citizen of the Year dans la catégorie "Arts, Culture and Entertainment".
 En 1987, elle devient membre de l'Ordre d'Australie, en reconnaissance de sa contribution artistique, en particulier comme auteure et illustratrice. Ses illustrations botaniques ont été exposées à l'Art Gallery of Western Australia et à la bibliothèque Alexander de Perth.
@@ -617,9 +635,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2004, Stephen Hopper et Andrew P. Brown baptistent une orchidée Ericksonella en hommage[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, Stephen Hopper et Andrew P. Brown baptistent une orchidée Ericksonella en hommage.
 </t>
         </is>
       </c>
@@ -648,36 +668,175 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>On peut trouver une bibliographie complète sur le site SLWA.
-Botanique
-(en) Erickson, Rica, Orchids of the West, Paterson Brokensha, Perth, 1978 (1re éd. 1951)
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut trouver une bibliographie complète sur le site SLWA.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rica_Erickson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rica_Erickson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Erickson, Rica, Orchids of the West, Paterson Brokensha, Perth, 1978 (1re éd. 1951)
 (en) Erickson, Rica, Triggerplants, University of WA Press, 1981 (1re éd. 1958)
-(en) Erickson, Rica, Plants of Prey in Australia, University of WA Press, 1968
-Histoire
-(en) Erickson, Rica, The Drummonds of Hawthornden, Lamb Paterson, Osborne Park, 1969
+(en) Erickson, Rica, Plants of Prey in Australia, University of WA Press, 1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rica_Erickson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rica_Erickson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Erickson, Rica, The Drummonds of Hawthornden, Lamb Paterson, Osborne Park, 1969
 (en) Erickson, Rica, The Victoria Plains, Lamb Paterson, Osborne Park, 1971
 (en) Erickson, Rica, Old Toodyay and Newcastle, 1974
 (en) Erickson, Rica, The Dempsters, 1978
 (en) Erickson, Rica, The Brand on His Coat, 1983
 (en) Erickson, Rica, The Bride Ships, 1992
-(en) Erickson, Rica, The Misfortunes of Phoebe, Hesperian Press, 1997
-Histoire naturelle
-Erickson est à la tête de la compilation des volumes du Dictionary of West Australians.
+(en) Erickson, Rica, The Misfortunes of Phoebe, Hesperian Press, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rica_Erickson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rica_Erickson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Histoire naturelle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Erickson est à la tête de la compilation des volumes du Dictionary of West Australians.
 (en) Erickson, Rica, Sentinel Duties Among Cockatoos, in Land of Wonder—The Best Australian Nature Writing, Angus and Robertson, Sydney, 1964
 (en) Erickson, Rica, Young's Siding, in They Tell Their Own tales—The Vanishing One-Teacher Schools, Privately published
 (en) Erickson, Rica, Sharing a Wonderful Dream, LISWA, 1991
 (en) Erickson, R., George, A.S., Marchant, A.S., Flowers and Plants of Western Australia, 1973
-(en) Erickson, R., Jane Adams of Mangowine in Early Days Journal, Vol. VII, Part VI, 1974
-Articles et essais
-Articles in The West Australian regarding natural history in the 1950s.
-Springtime in the Stirlings – The West Australian 17 November 1951 p. 11[3] – Climbing Mondurup at the west end of the Range.
+(en) Erickson, R., Jane Adams of Mangowine in Early Days Journal, Vol. VII, Part VI, 1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rica_Erickson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rica_Erickson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Articles et essais</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Articles in The West Australian regarding natural history in the 1950s.
+Springtime in the Stirlings – The West Australian 17 November 1951 p. 11 – Climbing Mondurup at the west end of the Range.
 Australian Orchid Review
 Australian Plants
 Bird Study for Bird Lovers
 The Emu: Official Organ of the Royal Australasian Ornithologists Union
-Flowers &amp; plants of Western Australia (avecAS George AS, NG Marchant and MK Morcombe )(1986) (Reed, Sydney)[4].
+Flowers &amp; plants of Western Australia (avecAS George AS, NG Marchant and MK Morcombe )(1986) (Reed, Sydney).
 The Perth Mint Wildflower Chart
 The Victorian Naturalist
 The Western Australian Naturalist
